--- a/data/Aliases.xlsx
+++ b/data/Aliases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheusjprates/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheusjprates/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{788E08D1-259E-DB48-91CE-0CBA2FA3BCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B928DA-98BC-9D4B-B9B5-105EA7872126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1760" windowWidth="27240" windowHeight="15980" xr2:uid="{9E0503C7-3473-CA45-BF95-70A64BF8574A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
   <si>
     <t>Instituição</t>
   </si>
@@ -615,6 +615,12 @@
   </si>
   <si>
     <t>8B4513</t>
+  </si>
+  <si>
+    <t>DOCK IP - PRUDENCIAL</t>
+  </si>
+  <si>
+    <t>Dock</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052BA4F-BCDA-C746-8CAD-83F924F08384}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4126,6 +4132,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
